--- a/test_data/Selenium_Pytest_Data.xlsx
+++ b/test_data/Selenium_Pytest_Data.xlsx
@@ -341,7 +341,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>testy7@mctesterson.com</t>
+          <t>testy8@mctesterson.com</t>
         </is>
       </c>
     </row>
